--- a/SourceCode/dams/templates/BatStateU-FO-COL-27_Faculty-Schedule_Rev.-01.xlsx
+++ b/SourceCode/dams/templates/BatStateU-FO-COL-27_Faculty-Schedule_Rev.-01.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8355"/>
+    <workbookView windowWidth="19635" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="BLANK FORM" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
   <si>
     <t xml:space="preserve">  Reference No.: BatStateU-FO-COL-27</t>
   </si>
@@ -85,6 +85,9 @@
     <t>6:00 - 7:00</t>
   </si>
   <si>
+    <t>AM</t>
+  </si>
+  <si>
     <t>7:00 - 8:00</t>
   </si>
   <si>
@@ -98,6 +101,9 @@
   </si>
   <si>
     <t>11:00 - 12:00</t>
+  </si>
+  <si>
+    <t>PM</t>
   </si>
   <si>
     <t>12:00 - 1:00</t>
@@ -184,12 +190,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -249,12 +255,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -263,53 +263,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,10 +302,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -376,14 +333,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -398,6 +363,47 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -414,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,30 +768,6 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -808,8 +790,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -853,6 +835,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -866,153 +872,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1131,18 +1137,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
@@ -1248,52 +1242,52 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
-    <cellStyle name="Note" xfId="12" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
     <cellStyle name="Excel Built-in Normal" xfId="49"/>
@@ -1645,8 +1639,8 @@
   <sheetPr/>
   <dimension ref="A1:V39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScalePageLayoutView="55" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -1694,12 +1688,12 @@
       <c r="O1" s="40"/>
       <c r="P1" s="40"/>
       <c r="Q1" s="40"/>
-      <c r="R1" s="53"/>
+      <c r="R1" s="49"/>
       <c r="S1" s="39" t="s">
         <v>2</v>
       </c>
       <c r="T1" s="40"/>
-      <c r="U1" s="53"/>
+      <c r="U1" s="49"/>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:21">
       <c r="A2" s="3" t="s">
@@ -1724,7 +1718,7 @@
       <c r="R2" s="4"/>
       <c r="S2" s="4"/>
       <c r="T2" s="4"/>
-      <c r="U2" s="54"/>
+      <c r="U2" s="50"/>
     </row>
     <row r="3" ht="20.25" customHeight="1" spans="1:21">
       <c r="A3" s="5" t="s">
@@ -1831,17 +1825,17 @@
       <c r="R5" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="S5" s="55" t="s">
+      <c r="S5" s="51" t="s">
         <v>18</v>
       </c>
       <c r="T5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="U5" s="56" t="s">
+      <c r="U5" s="52" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:21">
+    <row r="6" ht="18" customHeight="1" spans="1:22">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1857,16 +1851,19 @@
       <c r="K6" s="12"/>
       <c r="L6" s="13"/>
       <c r="M6" s="14"/>
-      <c r="N6" s="42"/>
-      <c r="O6" s="43"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="13"/>
       <c r="P6" s="14"/>
       <c r="Q6" s="14"/>
       <c r="R6" s="14"/>
-      <c r="S6" s="55"/>
+      <c r="S6" s="51"/>
       <c r="T6" s="10"/>
-      <c r="U6" s="57"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:21">
+      <c r="U6" s="53"/>
+      <c r="V6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:22">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1880,18 +1877,21 @@
       <c r="K7" s="16"/>
       <c r="L7" s="17"/>
       <c r="M7" s="18"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="45"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="17"/>
       <c r="P7" s="18"/>
       <c r="Q7" s="18"/>
       <c r="R7" s="18"/>
-      <c r="S7" s="55"/>
+      <c r="S7" s="51"/>
       <c r="T7" s="10"/>
-      <c r="U7" s="57"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:21">
+      <c r="U7" s="53"/>
+      <c r="V7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:22">
       <c r="A8" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="13"/>
@@ -1905,16 +1905,19 @@
       <c r="K8" s="12"/>
       <c r="L8" s="13"/>
       <c r="M8" s="14"/>
-      <c r="N8" s="42"/>
-      <c r="O8" s="43"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="13"/>
       <c r="P8" s="14"/>
       <c r="Q8" s="14"/>
       <c r="R8" s="14"/>
-      <c r="S8" s="58"/>
-      <c r="T8" s="58"/>
-      <c r="U8" s="58"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:21">
+      <c r="S8" s="54"/>
+      <c r="T8" s="54"/>
+      <c r="U8" s="54"/>
+      <c r="V8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:22">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -1928,18 +1931,21 @@
       <c r="K9" s="16"/>
       <c r="L9" s="17"/>
       <c r="M9" s="18"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="45"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
       <c r="R9" s="18"/>
-      <c r="S9" s="58"/>
-      <c r="T9" s="58"/>
-      <c r="U9" s="58"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:21">
+      <c r="S9" s="54"/>
+      <c r="T9" s="54"/>
+      <c r="U9" s="54"/>
+      <c r="V9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:22">
       <c r="A10" s="11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="13"/>
@@ -1953,16 +1959,19 @@
       <c r="K10" s="12"/>
       <c r="L10" s="13"/>
       <c r="M10" s="14"/>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="14"/>
       <c r="R10" s="14"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="58"/>
-      <c r="U10" s="58"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:21">
+      <c r="S10" s="54"/>
+      <c r="T10" s="54"/>
+      <c r="U10" s="54"/>
+      <c r="V10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:22">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -1976,18 +1985,21 @@
       <c r="K11" s="16"/>
       <c r="L11" s="17"/>
       <c r="M11" s="18"/>
-      <c r="N11" s="44"/>
-      <c r="O11" s="45"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
-      <c r="S11" s="58"/>
-      <c r="T11" s="58"/>
-      <c r="U11" s="58"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:21">
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:22">
       <c r="A12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="13"/>
@@ -2001,16 +2013,19 @@
       <c r="K12" s="12"/>
       <c r="L12" s="13"/>
       <c r="M12" s="14"/>
-      <c r="N12" s="42"/>
-      <c r="O12" s="43"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
       <c r="P12" s="14"/>
       <c r="Q12" s="14"/>
       <c r="R12" s="14"/>
-      <c r="S12" s="58"/>
-      <c r="T12" s="58"/>
-      <c r="U12" s="58"/>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:21">
+      <c r="S12" s="54"/>
+      <c r="T12" s="54"/>
+      <c r="U12" s="54"/>
+      <c r="V12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:22">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -2024,18 +2039,21 @@
       <c r="K13" s="16"/>
       <c r="L13" s="17"/>
       <c r="M13" s="18"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="45"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
       <c r="R13" s="18"/>
-      <c r="S13" s="58"/>
-      <c r="T13" s="58"/>
-      <c r="U13" s="58"/>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:21">
+      <c r="S13" s="54"/>
+      <c r="T13" s="54"/>
+      <c r="U13" s="54"/>
+      <c r="V13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:22">
       <c r="A14" s="11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="13"/>
@@ -2049,16 +2067,19 @@
       <c r="K14" s="12"/>
       <c r="L14" s="13"/>
       <c r="M14" s="14"/>
-      <c r="N14" s="42"/>
-      <c r="O14" s="43"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
       <c r="P14" s="14"/>
       <c r="Q14" s="14"/>
       <c r="R14" s="14"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:21">
+      <c r="S14" s="54"/>
+      <c r="T14" s="54"/>
+      <c r="U14" s="54"/>
+      <c r="V14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:22">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -2072,18 +2093,21 @@
       <c r="K15" s="16"/>
       <c r="L15" s="17"/>
       <c r="M15" s="18"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="45"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="18"/>
       <c r="Q15" s="18"/>
       <c r="R15" s="18"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:21">
+      <c r="S15" s="54"/>
+      <c r="T15" s="54"/>
+      <c r="U15" s="54"/>
+      <c r="V15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:22">
       <c r="A16" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="13"/>
@@ -2097,16 +2121,19 @@
       <c r="K16" s="12"/>
       <c r="L16" s="13"/>
       <c r="M16" s="14"/>
-      <c r="N16" s="42"/>
-      <c r="O16" s="43"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
       <c r="P16" s="14"/>
       <c r="Q16" s="14"/>
       <c r="R16" s="14"/>
-      <c r="S16" s="59"/>
-      <c r="T16" s="59"/>
-      <c r="U16" s="59"/>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:21">
+      <c r="S16" s="55"/>
+      <c r="T16" s="55"/>
+      <c r="U16" s="55"/>
+      <c r="V16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:22">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -2120,18 +2147,21 @@
       <c r="K17" s="16"/>
       <c r="L17" s="17"/>
       <c r="M17" s="18"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="45"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="18"/>
       <c r="Q17" s="18"/>
       <c r="R17" s="18"/>
-      <c r="S17" s="59"/>
-      <c r="T17" s="59"/>
-      <c r="U17" s="59"/>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:21">
+      <c r="S17" s="55"/>
+      <c r="T17" s="55"/>
+      <c r="U17" s="55"/>
+      <c r="V17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:22">
       <c r="A18" s="11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="13"/>
@@ -2145,16 +2175,19 @@
       <c r="K18" s="12"/>
       <c r="L18" s="13"/>
       <c r="M18" s="14"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="43"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="13"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="14"/>
       <c r="R18" s="14"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:21">
+      <c r="S18" s="55"/>
+      <c r="T18" s="55"/>
+      <c r="U18" s="55"/>
+      <c r="V18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:22">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -2168,18 +2201,21 @@
       <c r="K19" s="16"/>
       <c r="L19" s="17"/>
       <c r="M19" s="18"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="45"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="18"/>
       <c r="Q19" s="18"/>
       <c r="R19" s="18"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:21">
+      <c r="S19" s="55"/>
+      <c r="T19" s="55"/>
+      <c r="U19" s="55"/>
+      <c r="V19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:22">
       <c r="A20" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="13"/>
@@ -2193,18 +2229,21 @@
       <c r="K20" s="12"/>
       <c r="L20" s="13"/>
       <c r="M20" s="20"/>
-      <c r="N20" s="42"/>
-      <c r="O20" s="43"/>
+      <c r="N20" s="12"/>
+      <c r="O20" s="13"/>
       <c r="P20" s="20"/>
       <c r="Q20" s="20"/>
       <c r="R20" s="20"/>
-      <c r="S20" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="T20" s="61"/>
-      <c r="U20" s="62"/>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:21">
+      <c r="S20" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="T20" s="57"/>
+      <c r="U20" s="58"/>
+      <c r="V20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:22">
       <c r="A21" s="21"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -2218,18 +2257,21 @@
       <c r="K21" s="16"/>
       <c r="L21" s="17"/>
       <c r="M21" s="22"/>
-      <c r="N21" s="44"/>
-      <c r="O21" s="45"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="22"/>
       <c r="Q21" s="22"/>
       <c r="R21" s="22"/>
-      <c r="S21" s="63"/>
-      <c r="T21" s="64"/>
-      <c r="U21" s="65"/>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:21">
+      <c r="S21" s="59"/>
+      <c r="T21" s="60"/>
+      <c r="U21" s="61"/>
+      <c r="V21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:22">
       <c r="A22" s="19" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="13"/>
@@ -2243,18 +2285,21 @@
       <c r="K22" s="12"/>
       <c r="L22" s="13"/>
       <c r="M22" s="20"/>
-      <c r="N22" s="42"/>
-      <c r="O22" s="43"/>
+      <c r="N22" s="12"/>
+      <c r="O22" s="13"/>
       <c r="P22" s="20"/>
       <c r="Q22" s="20"/>
       <c r="R22" s="20"/>
-      <c r="S22" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" s="67"/>
-      <c r="U22" s="68"/>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:21">
+      <c r="S22" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="T22" s="63"/>
+      <c r="U22" s="64"/>
+      <c r="V22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:22">
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -2268,20 +2313,23 @@
       <c r="K23" s="16"/>
       <c r="L23" s="17"/>
       <c r="M23" s="22"/>
-      <c r="N23" s="44"/>
-      <c r="O23" s="45"/>
+      <c r="N23" s="16"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
       <c r="R23" s="22"/>
-      <c r="S23" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="T23" s="70"/>
-      <c r="U23" s="71"/>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:21">
+      <c r="S23" s="65" t="s">
+        <v>34</v>
+      </c>
+      <c r="T23" s="66"/>
+      <c r="U23" s="67"/>
+      <c r="V23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:22">
       <c r="A24" s="19" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="13"/>
@@ -2295,18 +2343,21 @@
       <c r="K24" s="12"/>
       <c r="L24" s="13"/>
       <c r="M24" s="20"/>
-      <c r="N24" s="42"/>
-      <c r="O24" s="43"/>
+      <c r="N24" s="12"/>
+      <c r="O24" s="13"/>
       <c r="P24" s="20"/>
       <c r="Q24" s="20"/>
       <c r="R24" s="20"/>
-      <c r="S24" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="73"/>
-      <c r="U24" s="74"/>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:21">
+      <c r="S24" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="69"/>
+      <c r="U24" s="70"/>
+      <c r="V24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:22">
       <c r="A25" s="21"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -2320,20 +2371,23 @@
       <c r="K25" s="16"/>
       <c r="L25" s="17"/>
       <c r="M25" s="22"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="45"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="22"/>
       <c r="Q25" s="22"/>
       <c r="R25" s="22"/>
-      <c r="S25" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="T25" s="61"/>
-      <c r="U25" s="62"/>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:21">
+      <c r="S25" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="T25" s="57"/>
+      <c r="U25" s="58"/>
+      <c r="V25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:22">
       <c r="A26" s="19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="13"/>
@@ -2347,16 +2401,19 @@
       <c r="K26" s="12"/>
       <c r="L26" s="13"/>
       <c r="M26" s="20"/>
-      <c r="N26" s="42"/>
-      <c r="O26" s="43"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="13"/>
       <c r="P26" s="20"/>
       <c r="Q26" s="20"/>
       <c r="R26" s="20"/>
-      <c r="S26" s="75"/>
-      <c r="T26" s="76"/>
-      <c r="U26" s="77"/>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:21">
+      <c r="S26" s="71"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="73"/>
+      <c r="V26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:22">
       <c r="A27" s="21"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -2370,20 +2427,23 @@
       <c r="K27" s="16"/>
       <c r="L27" s="17"/>
       <c r="M27" s="22"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="45"/>
+      <c r="N27" s="16"/>
+      <c r="O27" s="17"/>
       <c r="P27" s="22"/>
       <c r="Q27" s="22"/>
       <c r="R27" s="22"/>
-      <c r="S27" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" s="67"/>
-      <c r="U27" s="68"/>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:21">
+      <c r="S27" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="T27" s="63"/>
+      <c r="U27" s="64"/>
+      <c r="V27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:22">
       <c r="A28" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B28" s="12"/>
       <c r="C28" s="13"/>
@@ -2397,18 +2457,21 @@
       <c r="K28" s="12"/>
       <c r="L28" s="13"/>
       <c r="M28" s="20"/>
-      <c r="N28" s="42"/>
-      <c r="O28" s="43"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
       <c r="P28" s="20"/>
       <c r="Q28" s="20"/>
       <c r="R28" s="20"/>
-      <c r="S28" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="T28" s="70"/>
-      <c r="U28" s="71"/>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:21">
+      <c r="S28" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" s="66"/>
+      <c r="U28" s="67"/>
+      <c r="V28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:22">
       <c r="A29" s="21"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -2422,18 +2485,21 @@
       <c r="K29" s="16"/>
       <c r="L29" s="17"/>
       <c r="M29" s="22"/>
-      <c r="N29" s="44"/>
-      <c r="O29" s="45"/>
+      <c r="N29" s="16"/>
+      <c r="O29" s="17"/>
       <c r="P29" s="22"/>
       <c r="Q29" s="22"/>
       <c r="R29" s="22"/>
-      <c r="S29" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="T29" s="73"/>
-      <c r="U29" s="74"/>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:21">
+      <c r="S29" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="69"/>
+      <c r="U29" s="70"/>
+      <c r="V29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:22">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -2449,18 +2515,21 @@
       <c r="K30" s="12"/>
       <c r="L30" s="13"/>
       <c r="M30" s="20"/>
-      <c r="N30" s="42"/>
-      <c r="O30" s="43"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
       <c r="P30" s="20"/>
       <c r="Q30" s="20"/>
       <c r="R30" s="20"/>
-      <c r="S30" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="T30" s="61"/>
-      <c r="U30" s="62"/>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:21">
+      <c r="S30" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="T30" s="57"/>
+      <c r="U30" s="58"/>
+      <c r="V30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:22">
       <c r="A31" s="21"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -2474,18 +2543,21 @@
       <c r="K31" s="16"/>
       <c r="L31" s="17"/>
       <c r="M31" s="22"/>
-      <c r="N31" s="44"/>
-      <c r="O31" s="45"/>
+      <c r="N31" s="16"/>
+      <c r="O31" s="17"/>
       <c r="P31" s="22"/>
       <c r="Q31" s="22"/>
       <c r="R31" s="22"/>
-      <c r="S31" s="63"/>
-      <c r="T31" s="64"/>
-      <c r="U31" s="65"/>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:21">
+      <c r="S31" s="59"/>
+      <c r="T31" s="60"/>
+      <c r="U31" s="61"/>
+      <c r="V31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:22">
       <c r="A32" s="19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B32" s="12"/>
       <c r="C32" s="13"/>
@@ -2499,18 +2571,21 @@
       <c r="K32" s="12"/>
       <c r="L32" s="13"/>
       <c r="M32" s="20"/>
-      <c r="N32" s="42"/>
-      <c r="O32" s="43"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
-      <c r="S32" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="T32" s="67"/>
-      <c r="U32" s="68"/>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:21">
+      <c r="S32" s="62" t="s">
+        <v>42</v>
+      </c>
+      <c r="T32" s="63"/>
+      <c r="U32" s="64"/>
+      <c r="V32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:22">
       <c r="A33" s="21"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -2524,20 +2599,23 @@
       <c r="K33" s="16"/>
       <c r="L33" s="17"/>
       <c r="M33" s="22"/>
-      <c r="N33" s="44"/>
-      <c r="O33" s="45"/>
+      <c r="N33" s="16"/>
+      <c r="O33" s="17"/>
       <c r="P33" s="22"/>
       <c r="Q33" s="22"/>
       <c r="R33" s="22"/>
-      <c r="S33" s="69" t="s">
-        <v>41</v>
-      </c>
-      <c r="T33" s="70"/>
-      <c r="U33" s="71"/>
+      <c r="S33" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="66"/>
+      <c r="U33" s="67"/>
+      <c r="V33" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="34" ht="18" customHeight="1" spans="1:22">
       <c r="A34" s="23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="25"/>
@@ -2546,26 +2624,26 @@
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
       <c r="H34" s="30"/>
-      <c r="I34" s="46"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="46"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="46"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="46"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="T34" s="73"/>
-      <c r="U34" s="74"/>
-      <c r="V34" s="78"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="43"/>
+      <c r="K34" s="42"/>
+      <c r="L34" s="44"/>
+      <c r="M34" s="43"/>
+      <c r="N34" s="42"/>
+      <c r="O34" s="44"/>
+      <c r="P34" s="43"/>
+      <c r="Q34" s="42"/>
+      <c r="R34" s="43"/>
+      <c r="S34" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="69"/>
+      <c r="U34" s="70"/>
+      <c r="V34" s="74"/>
     </row>
     <row r="35" ht="18" customHeight="1" spans="1:22">
       <c r="A35" s="31" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="25"/>
@@ -2577,23 +2655,23 @@
       <c r="I35" s="34"/>
       <c r="J35" s="35"/>
       <c r="K35" s="34"/>
-      <c r="L35" s="49"/>
+      <c r="L35" s="45"/>
       <c r="M35" s="35"/>
       <c r="N35" s="34"/>
-      <c r="O35" s="49"/>
+      <c r="O35" s="45"/>
       <c r="P35" s="35"/>
       <c r="Q35" s="34"/>
       <c r="R35" s="35"/>
-      <c r="S35" s="79" t="s">
-        <v>44</v>
-      </c>
-      <c r="T35" s="80"/>
-      <c r="U35" s="81"/>
-      <c r="V35" s="78"/>
+      <c r="S35" s="75" t="s">
+        <v>46</v>
+      </c>
+      <c r="T35" s="76"/>
+      <c r="U35" s="77"/>
+      <c r="V35" s="74"/>
     </row>
     <row r="36" ht="18" customHeight="1" spans="1:22">
       <c r="A36" s="23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="25"/>
@@ -2605,21 +2683,21 @@
       <c r="I36" s="34"/>
       <c r="J36" s="35"/>
       <c r="K36" s="34"/>
-      <c r="L36" s="49"/>
+      <c r="L36" s="45"/>
       <c r="M36" s="35"/>
       <c r="N36" s="32"/>
-      <c r="O36" s="50"/>
+      <c r="O36" s="46"/>
       <c r="P36" s="33"/>
       <c r="Q36" s="32"/>
       <c r="R36" s="33"/>
-      <c r="S36" s="63"/>
-      <c r="T36" s="64"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="78"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="60"/>
+      <c r="U36" s="61"/>
+      <c r="V36" s="74"/>
     </row>
     <row r="37" ht="18" customHeight="1" spans="1:22">
       <c r="A37" s="23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="25"/>
@@ -2631,23 +2709,23 @@
       <c r="I37" s="36"/>
       <c r="J37" s="37"/>
       <c r="K37" s="36"/>
-      <c r="L37" s="51"/>
+      <c r="L37" s="47"/>
       <c r="M37" s="37"/>
       <c r="N37" s="32"/>
-      <c r="O37" s="50"/>
+      <c r="O37" s="46"/>
       <c r="P37" s="33"/>
       <c r="Q37" s="32"/>
       <c r="R37" s="33"/>
-      <c r="S37" s="66" t="s">
-        <v>31</v>
-      </c>
-      <c r="T37" s="67"/>
-      <c r="U37" s="68"/>
-      <c r="V37" s="78"/>
+      <c r="S37" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="T37" s="63"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="74"/>
     </row>
     <row r="38" spans="1:21">
       <c r="A38" s="23" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B38" s="23"/>
       <c r="C38" s="38"/>
@@ -2655,13 +2733,13 @@
       <c r="E38" s="38"/>
       <c r="F38" s="38"/>
       <c r="G38" s="38" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="H38" s="38"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
       <c r="K38" s="38" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L38" s="38"/>
       <c r="M38" s="38"/>
@@ -2670,15 +2748,15 @@
       <c r="P38" s="38"/>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
-      <c r="S38" s="69" t="s">
-        <v>50</v>
-      </c>
-      <c r="T38" s="70"/>
-      <c r="U38" s="71"/>
+      <c r="S38" s="65" t="s">
+        <v>52</v>
+      </c>
+      <c r="T38" s="66"/>
+      <c r="U38" s="67"/>
     </row>
     <row r="39" ht="15.75" spans="1:21">
       <c r="A39" s="23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B39" s="23"/>
       <c r="C39" s="38"/>
@@ -2686,13 +2764,13 @@
       <c r="E39" s="38"/>
       <c r="F39" s="38"/>
       <c r="G39" s="38" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H39" s="38"/>
-      <c r="I39" s="52"/>
-      <c r="J39" s="52"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
       <c r="K39" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="L39" s="38"/>
       <c r="M39" s="38"/>
@@ -2701,11 +2779,11 @@
       <c r="P39" s="38"/>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
-      <c r="S39" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="T39" s="73"/>
-      <c r="U39" s="74"/>
+      <c r="S39" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="T39" s="69"/>
+      <c r="U39" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="88">

--- a/SourceCode/dams/templates/BatStateU-FO-COL-27_Faculty-Schedule_Rev.-01.xlsx
+++ b/SourceCode/dams/templates/BatStateU-FO-COL-27_Faculty-Schedule_Rev.-01.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="56">
   <si>
     <t xml:space="preserve">  Reference No.: BatStateU-FO-COL-27</t>
   </si>
@@ -1637,10 +1637,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V39"/>
+  <dimension ref="A1:W39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="W16" sqref="W16"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="55" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -1835,7 +1835,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" ht="18" customHeight="1" spans="1:22">
+    <row r="6" ht="18" customHeight="1" spans="1:23">
       <c r="A6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1862,8 +1862,11 @@
       <c r="V6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:22">
+      <c r="W6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" ht="18" customHeight="1" spans="1:23">
       <c r="A7" s="15"/>
       <c r="B7" s="16"/>
       <c r="C7" s="17"/>
@@ -1888,8 +1891,11 @@
       <c r="V7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:22">
+      <c r="W7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:23">
       <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
@@ -1916,8 +1922,11 @@
       <c r="V8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:22">
+      <c r="W8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" ht="18" customHeight="1" spans="1:23">
       <c r="A9" s="15"/>
       <c r="B9" s="16"/>
       <c r="C9" s="17"/>
@@ -1942,8 +1951,11 @@
       <c r="V9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:22">
+      <c r="W9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" ht="18" customHeight="1" spans="1:23">
       <c r="A10" s="11" t="s">
         <v>24</v>
       </c>
@@ -1970,8 +1982,11 @@
       <c r="V10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:22">
+      <c r="W10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" ht="18" customHeight="1" spans="1:23">
       <c r="A11" s="15"/>
       <c r="B11" s="16"/>
       <c r="C11" s="17"/>
@@ -1996,8 +2011,11 @@
       <c r="V11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:22">
+      <c r="W11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="18" customHeight="1" spans="1:23">
       <c r="A12" s="11" t="s">
         <v>25</v>
       </c>
@@ -2024,8 +2042,11 @@
       <c r="V12" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" ht="18" customHeight="1" spans="1:22">
+      <c r="W12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:23">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="17"/>
@@ -2050,8 +2071,11 @@
       <c r="V13" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" ht="18" customHeight="1" spans="1:22">
+      <c r="W13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:23">
       <c r="A14" s="11" t="s">
         <v>26</v>
       </c>
@@ -2078,8 +2102,11 @@
       <c r="V14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" ht="18" customHeight="1" spans="1:22">
+      <c r="W14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" ht="18" customHeight="1" spans="1:23">
       <c r="A15" s="15"/>
       <c r="B15" s="16"/>
       <c r="C15" s="17"/>
@@ -2104,8 +2131,11 @@
       <c r="V15" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" ht="18" customHeight="1" spans="1:22">
+      <c r="W15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" ht="18" customHeight="1" spans="1:23">
       <c r="A16" s="11" t="s">
         <v>27</v>
       </c>
@@ -2132,8 +2162,11 @@
       <c r="V16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" ht="18" customHeight="1" spans="1:22">
+      <c r="W16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" ht="18" customHeight="1" spans="1:23">
       <c r="A17" s="15"/>
       <c r="B17" s="16"/>
       <c r="C17" s="17"/>
@@ -2156,10 +2189,13 @@
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" ht="18" customHeight="1" spans="1:22">
+        <v>22</v>
+      </c>
+      <c r="W17" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" ht="18" customHeight="1" spans="1:23">
       <c r="A18" s="11" t="s">
         <v>29</v>
       </c>
@@ -2186,8 +2222,11 @@
       <c r="V18" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="19" ht="18" customHeight="1" spans="1:22">
+      <c r="W18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="18" customHeight="1" spans="1:23">
       <c r="A19" s="15"/>
       <c r="B19" s="16"/>
       <c r="C19" s="17"/>
@@ -2212,8 +2251,11 @@
       <c r="V19" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="20" ht="18" customHeight="1" spans="1:22">
+      <c r="W19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" ht="18" customHeight="1" spans="1:23">
       <c r="A20" s="19" t="s">
         <v>30</v>
       </c>
@@ -2242,8 +2284,11 @@
       <c r="V20" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="21" ht="18" customHeight="1" spans="1:22">
+      <c r="W20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" ht="18" customHeight="1" spans="1:23">
       <c r="A21" s="21"/>
       <c r="B21" s="16"/>
       <c r="C21" s="17"/>
@@ -2268,8 +2313,11 @@
       <c r="V21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="22" ht="18" customHeight="1" spans="1:22">
+      <c r="W21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" ht="18" customHeight="1" spans="1:23">
       <c r="A22" s="19" t="s">
         <v>32</v>
       </c>
@@ -2298,8 +2346,11 @@
       <c r="V22" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="23" ht="18" customHeight="1" spans="1:22">
+      <c r="W22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="18" customHeight="1" spans="1:23">
       <c r="A23" s="21"/>
       <c r="B23" s="16"/>
       <c r="C23" s="17"/>
@@ -2326,8 +2377,11 @@
       <c r="V23" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="24" ht="18" customHeight="1" spans="1:22">
+      <c r="W23" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" ht="18" customHeight="1" spans="1:23">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -2356,8 +2410,11 @@
       <c r="V24" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="25" ht="18" customHeight="1" spans="1:22">
+      <c r="W24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" ht="18" customHeight="1" spans="1:23">
       <c r="A25" s="21"/>
       <c r="B25" s="16"/>
       <c r="C25" s="17"/>
@@ -2384,8 +2441,11 @@
       <c r="V25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="26" ht="18" customHeight="1" spans="1:22">
+      <c r="W25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="26" ht="18" customHeight="1" spans="1:23">
       <c r="A26" s="19" t="s">
         <v>38</v>
       </c>
@@ -2412,8 +2472,11 @@
       <c r="V26" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="27" ht="18" customHeight="1" spans="1:22">
+      <c r="W26" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" ht="18" customHeight="1" spans="1:23">
       <c r="A27" s="21"/>
       <c r="B27" s="16"/>
       <c r="C27" s="17"/>
@@ -2440,8 +2503,11 @@
       <c r="V27" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="28" ht="18" customHeight="1" spans="1:22">
+      <c r="W27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" ht="18" customHeight="1" spans="1:23">
       <c r="A28" s="19" t="s">
         <v>39</v>
       </c>
@@ -2470,8 +2536,11 @@
       <c r="V28" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="29" ht="18" customHeight="1" spans="1:22">
+      <c r="W28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1" spans="1:23">
       <c r="A29" s="21"/>
       <c r="B29" s="16"/>
       <c r="C29" s="17"/>
@@ -2498,8 +2567,11 @@
       <c r="V29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" ht="18" customHeight="1" spans="1:22">
+      <c r="W29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1" spans="1:23">
       <c r="A30" s="19" t="s">
         <v>21</v>
       </c>
@@ -2528,8 +2600,11 @@
       <c r="V30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" ht="18" customHeight="1" spans="1:22">
+      <c r="W30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" ht="18" customHeight="1" spans="1:23">
       <c r="A31" s="21"/>
       <c r="B31" s="16"/>
       <c r="C31" s="17"/>
@@ -2554,8 +2629,11 @@
       <c r="V31" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="32" ht="18" customHeight="1" spans="1:22">
+      <c r="W31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" ht="18" customHeight="1" spans="1:23">
       <c r="A32" s="19" t="s">
         <v>23</v>
       </c>
@@ -2584,8 +2662,11 @@
       <c r="V32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="33" ht="18" customHeight="1" spans="1:22">
+      <c r="W32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" ht="18" customHeight="1" spans="1:23">
       <c r="A33" s="21"/>
       <c r="B33" s="16"/>
       <c r="C33" s="17"/>
@@ -2610,6 +2691,9 @@
       <c r="T33" s="66"/>
       <c r="U33" s="67"/>
       <c r="V33" t="s">
+        <v>28</v>
+      </c>
+      <c r="W33" t="s">
         <v>28</v>
       </c>
     </row>
